--- a/biology/Botanique/Tillandsia_kegeliana/Tillandsia_kegeliana.xlsx
+++ b/biology/Botanique/Tillandsia_kegeliana/Tillandsia_kegeliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia kegeliana Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète kegeliana est une dédicace au botaniste Kegel, collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia kegeliana Mez in C.DC., Monogr. Phan. 9: 725 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis multis dense rosulatis, utrinque perdense lepidibus pallidis, subimbricalis obtectis ; inflorescentia perpauciflora, simplicissima, disticha optime flabellata ; bracteis valde imbricatis, carnosis, dorso glabris, apice valde carinatis incurvisque, sepala egregie superantibus ; floribus suberecto-erectis; sepalis aequaliter liberis. »
-Type : Mez[1] cite plusieurs spécimens différents sans désigner explicitement l'holotype : « Guyana batava, prope Paramaribo ad ramos Crescentiae, Mangiferae : Kegel n. 802, 881, Splitgerber n. 644. (V. s. in herb. Goetting., Lugd.-Bat.) ».
+Type : Mez cite plusieurs spécimens différents sans désigner explicitement l'holotype : « Guyana batava, prope Paramaribo ad ramos Crescentiae, Mangiferae : Kegel n. 802, 881, Splitgerber n. 644. (V. s. in herb. Goetting., Lugd.-Bat.) ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1],[2],[3].
-Habitat : milieux forestiers[3] ; en épiphyte sur hôtes des genres Crescentia et Mangifera [1].
-Altitude : 10-700 m[2] ; 250-800 m[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : milieux forestiers ; en épiphyte sur hôtes des genres Crescentia et Mangifera .
+Altitude : 10-700 m ; 250-800 m.</t>
         </is>
       </c>
     </row>
@@ -634,17 +654,19 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Panama[2],[3]
+ Panama,
 Amérique du sud :
  Brésil
-Nord-est du Brésil[3].
+Nord-est du Brésil.
  Colombie
-Santander[2]
+Santander
  Guyane
- Suriname[1]</t>
+ Suriname</t>
         </is>
       </c>
     </row>
@@ -672,9 +694,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia kegeliana est une plante de culture aisée[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia kegeliana est une plante de culture aisée.
 </t>
         </is>
       </c>
